--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ptprz1-Ncam1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ptprz1-Ncam1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -85,7 +91,7 @@
     <t>Ncam1</t>
   </si>
   <si>
-    <t>FAPs</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.28138215775053</v>
+        <v>0.096771</v>
       </c>
       <c r="H2">
-        <v>1.28138215775053</v>
+        <v>0.290313</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.02354936372111631</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.02354936372111631</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>5.05111219215877</v>
+        <v>1.182981</v>
       </c>
       <c r="N2">
-        <v>5.05111219215877</v>
+        <v>3.548943</v>
       </c>
       <c r="O2">
-        <v>0.1405894574353136</v>
+        <v>0.02832403852590813</v>
       </c>
       <c r="P2">
-        <v>0.1405894574353136</v>
+        <v>0.02832403852590813</v>
       </c>
       <c r="Q2">
-        <v>6.472405039828414</v>
+        <v>0.114478254351</v>
       </c>
       <c r="R2">
-        <v>6.472405039828414</v>
+        <v>1.030304289159</v>
       </c>
       <c r="S2">
-        <v>0.1405894574353136</v>
+        <v>0.0006670130852975217</v>
       </c>
       <c r="T2">
-        <v>0.1405894574353136</v>
+        <v>0.0006670130852975216</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +584,681 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.096771</v>
+      </c>
+      <c r="H3">
+        <v>0.290313</v>
+      </c>
+      <c r="I3">
+        <v>0.02354936372111631</v>
+      </c>
+      <c r="J3">
+        <v>0.02354936372111631</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>5.178030666666667</v>
+      </c>
+      <c r="N3">
+        <v>15.534092</v>
+      </c>
+      <c r="O3">
+        <v>0.1239772575307637</v>
+      </c>
+      <c r="P3">
+        <v>0.1239772575307637</v>
+      </c>
+      <c r="Q3">
+        <v>0.501083205644</v>
+      </c>
+      <c r="R3">
+        <v>4.509748850796</v>
+      </c>
+      <c r="S3">
+        <v>0.002919585530738462</v>
+      </c>
+      <c r="T3">
+        <v>0.002919585530738461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.096771</v>
+      </c>
+      <c r="H4">
+        <v>0.290313</v>
+      </c>
+      <c r="I4">
+        <v>0.02354936372111631</v>
+      </c>
+      <c r="J4">
+        <v>0.02354936372111631</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.089474</v>
+      </c>
+      <c r="N4">
+        <v>0.268422</v>
+      </c>
+      <c r="O4">
+        <v>0.002142270267288404</v>
+      </c>
+      <c r="P4">
+        <v>0.002142270267288404</v>
+      </c>
+      <c r="Q4">
+        <v>0.008658488454</v>
+      </c>
+      <c r="R4">
+        <v>0.07792639608599999</v>
+      </c>
+      <c r="S4">
+        <v>5.044910171330769E-05</v>
+      </c>
+      <c r="T4">
+        <v>5.044910171330768E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.096771</v>
+      </c>
+      <c r="H5">
+        <v>0.290313</v>
+      </c>
+      <c r="I5">
+        <v>0.02354936372111631</v>
+      </c>
+      <c r="J5">
+        <v>0.02354936372111631</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>35.31548633333333</v>
+      </c>
+      <c r="N5">
+        <v>105.946459</v>
+      </c>
+      <c r="O5">
+        <v>0.8455564336760397</v>
+      </c>
+      <c r="P5">
+        <v>0.8455564336760397</v>
+      </c>
+      <c r="Q5">
+        <v>3.417514927963</v>
+      </c>
+      <c r="R5">
+        <v>30.757634351667</v>
+      </c>
+      <c r="S5">
+        <v>0.01991231600336702</v>
+      </c>
+      <c r="T5">
+        <v>0.01991231600336702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1.28138215775053</v>
-      </c>
-      <c r="H3">
-        <v>1.28138215775053</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>30.876988565203</v>
-      </c>
-      <c r="N3">
-        <v>30.876988565203</v>
-      </c>
-      <c r="O3">
-        <v>0.8594105425646864</v>
-      </c>
-      <c r="P3">
-        <v>0.8594105425646864</v>
-      </c>
-      <c r="Q3">
-        <v>39.56522223251826</v>
-      </c>
-      <c r="R3">
-        <v>39.56522223251826</v>
-      </c>
-      <c r="S3">
-        <v>0.8594105425646864</v>
-      </c>
-      <c r="T3">
-        <v>0.8594105425646864</v>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.05416133333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.162484</v>
+      </c>
+      <c r="I6">
+        <v>0.01318023931019921</v>
+      </c>
+      <c r="J6">
+        <v>0.01318023931019921</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>1.182981</v>
+      </c>
+      <c r="N6">
+        <v>3.548943</v>
+      </c>
+      <c r="O6">
+        <v>0.02832403852590813</v>
+      </c>
+      <c r="P6">
+        <v>0.02832403852590813</v>
+      </c>
+      <c r="Q6">
+        <v>0.06407182826800001</v>
+      </c>
+      <c r="R6">
+        <v>0.576646454412</v>
+      </c>
+      <c r="S6">
+        <v>0.0003733176060027712</v>
+      </c>
+      <c r="T6">
+        <v>0.0003733176060027711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.05416133333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.162484</v>
+      </c>
+      <c r="I7">
+        <v>0.01318023931019921</v>
+      </c>
+      <c r="J7">
+        <v>0.01318023931019921</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.178030666666667</v>
+      </c>
+      <c r="N7">
+        <v>15.534092</v>
+      </c>
+      <c r="O7">
+        <v>0.1239772575307637</v>
+      </c>
+      <c r="P7">
+        <v>0.1239772575307637</v>
+      </c>
+      <c r="Q7">
+        <v>0.2804490449475556</v>
+      </c>
+      <c r="R7">
+        <v>2.524041404528</v>
+      </c>
+      <c r="S7">
+        <v>0.001634049923277663</v>
+      </c>
+      <c r="T7">
+        <v>0.001634049923277663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.05416133333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.162484</v>
+      </c>
+      <c r="I8">
+        <v>0.01318023931019921</v>
+      </c>
+      <c r="J8">
+        <v>0.01318023931019921</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.089474</v>
+      </c>
+      <c r="N8">
+        <v>0.268422</v>
+      </c>
+      <c r="O8">
+        <v>0.002142270267288404</v>
+      </c>
+      <c r="P8">
+        <v>0.002142270267288404</v>
+      </c>
+      <c r="Q8">
+        <v>0.004846031138666666</v>
+      </c>
+      <c r="R8">
+        <v>0.04361428024799999</v>
+      </c>
+      <c r="S8">
+        <v>2.823563478998559E-05</v>
+      </c>
+      <c r="T8">
+        <v>2.823563478998558E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.05416133333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.162484</v>
+      </c>
+      <c r="I9">
+        <v>0.01318023931019921</v>
+      </c>
+      <c r="J9">
+        <v>0.01318023931019921</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>35.31548633333333</v>
+      </c>
+      <c r="N9">
+        <v>105.946459</v>
+      </c>
+      <c r="O9">
+        <v>0.8455564336760397</v>
+      </c>
+      <c r="P9">
+        <v>0.8455564336760397</v>
+      </c>
+      <c r="Q9">
+        <v>1.912733827128444</v>
+      </c>
+      <c r="R9">
+        <v>17.214604444156</v>
+      </c>
+      <c r="S9">
+        <v>0.01114463614612879</v>
+      </c>
+      <c r="T9">
+        <v>0.01114463614612879</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.958350666666666</v>
+      </c>
+      <c r="H10">
+        <v>11.875052</v>
+      </c>
+      <c r="I10">
+        <v>0.9632703969686844</v>
+      </c>
+      <c r="J10">
+        <v>0.9632703969686844</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.182981</v>
+      </c>
+      <c r="N10">
+        <v>3.548943</v>
+      </c>
+      <c r="O10">
+        <v>0.02832403852590813</v>
+      </c>
+      <c r="P10">
+        <v>0.02832403852590813</v>
+      </c>
+      <c r="Q10">
+        <v>4.682653630003999</v>
+      </c>
+      <c r="R10">
+        <v>42.143882670036</v>
+      </c>
+      <c r="S10">
+        <v>0.02728370783460784</v>
+      </c>
+      <c r="T10">
+        <v>0.02728370783460783</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.958350666666666</v>
+      </c>
+      <c r="H11">
+        <v>11.875052</v>
+      </c>
+      <c r="I11">
+        <v>0.9632703969686844</v>
+      </c>
+      <c r="J11">
+        <v>0.9632703969686844</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.178030666666667</v>
+      </c>
+      <c r="N11">
+        <v>15.534092</v>
+      </c>
+      <c r="O11">
+        <v>0.1239772575307637</v>
+      </c>
+      <c r="P11">
+        <v>0.1239772575307637</v>
+      </c>
+      <c r="Q11">
+        <v>20.49646114142044</v>
+      </c>
+      <c r="R11">
+        <v>184.468150272784</v>
+      </c>
+      <c r="S11">
+        <v>0.1194236220767476</v>
+      </c>
+      <c r="T11">
+        <v>0.1194236220767476</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.958350666666666</v>
+      </c>
+      <c r="H12">
+        <v>11.875052</v>
+      </c>
+      <c r="I12">
+        <v>0.9632703969686844</v>
+      </c>
+      <c r="J12">
+        <v>0.9632703969686844</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.089474</v>
+      </c>
+      <c r="N12">
+        <v>0.268422</v>
+      </c>
+      <c r="O12">
+        <v>0.002142270267288404</v>
+      </c>
+      <c r="P12">
+        <v>0.002142270267288404</v>
+      </c>
+      <c r="Q12">
+        <v>0.3541694675493333</v>
+      </c>
+      <c r="R12">
+        <v>3.187525207943999</v>
+      </c>
+      <c r="S12">
+        <v>0.00206358553078511</v>
+      </c>
+      <c r="T12">
+        <v>0.00206358553078511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.958350666666666</v>
+      </c>
+      <c r="H13">
+        <v>11.875052</v>
+      </c>
+      <c r="I13">
+        <v>0.9632703969686844</v>
+      </c>
+      <c r="J13">
+        <v>0.9632703969686844</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>35.31548633333333</v>
+      </c>
+      <c r="N13">
+        <v>105.946459</v>
+      </c>
+      <c r="O13">
+        <v>0.8455564336760397</v>
+      </c>
+      <c r="P13">
+        <v>0.8455564336760397</v>
+      </c>
+      <c r="Q13">
+        <v>139.7910788712075</v>
+      </c>
+      <c r="R13">
+        <v>1258.119709840868</v>
+      </c>
+      <c r="S13">
+        <v>0.8144994815265438</v>
+      </c>
+      <c r="T13">
+        <v>0.8144994815265438</v>
       </c>
     </row>
   </sheetData>
